--- a/Airpay_Automation_Framework_MAUserAcceess/AirPayTestData/TestData/Datasheet_Result.xlsx
+++ b/Airpay_Automation_Framework_MAUserAcceess/AirPayTestData/TestData/Datasheet_Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="336">
   <si>
     <t>ModuleName</t>
   </si>
@@ -1016,6 +1016,12 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Navigation_Status 24/04/2019</t>
+  </si>
+  <si>
+    <t>URL_Status 24/04/2019</t>
   </si>
 </sst>
 </file>
@@ -1214,7 +1220,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="330">
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment/>
       <protection/>
@@ -1963,6 +1969,166 @@
       <protection/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment/>
       <protection/>
     </xf>
@@ -2671,10 +2837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <dimension ref="A1:S182"/>
+  <dimension ref="A1:Y182"/>
   <sheetViews>
-    <sheetView topLeftCell="B88" workbookViewId="0" zoomScale="91" zoomScaleNormal="91">
-      <selection activeCell="E100" pane="topLeft" sqref="E100"/>
+    <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="91" zoomScaleNormal="91">
+      <selection activeCell="J6" pane="topLeft" sqref="J6:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultRowHeight="15"/>
@@ -2690,10 +2856,13 @@
     <col min="14" max="14" customWidth="true" style="8" width="22.714285714285715" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" style="8" width="36.42857142857143" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" style="8" width="28.428571428571427" collapsed="true"/>
-    <col min="17" max="16384" style="8" width="9.142857142857142" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="8" width="21.714285714285715" collapsed="true"/>
+    <col min="18" max="23" style="8" width="9.142857142857142" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="8" width="28.428571428571427" collapsed="true"/>
+    <col min="25" max="16384" style="8" width="9.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:19">
+    <row ht="15" r="1" spans="1:25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2747,6 +2916,16 @@
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row ht="15" r="2" spans="1:15">
       <c r="A2" s="118" t="s">
@@ -2775,10 +2954,10 @@
         <v>190</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>25</v>
@@ -2820,10 +2999,10 @@
         <v>190</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>25</v>
@@ -2861,10 +3040,10 @@
         <v>34</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>25</v>
@@ -2891,12 +3070,12 @@
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="12"/>
+      <c r="L5" s="38"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row ht="15" r="6" spans="1:15">
+    <row ht="15" r="6" spans="1:24">
       <c r="A6" s="15" t="s">
         <v>201</v>
       </c>
@@ -2913,7 +3092,7 @@
         <v>38</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>20</v>
@@ -2925,13 +3104,13 @@
         <v>203</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M6" s="8" t="s">
         <v>25</v>
@@ -2941,6 +3120,9 @@
       </c>
       <c r="O6" s="13" t="s">
         <v>26</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row ht="15" r="7" spans="1:15">
@@ -2957,7 +3139,7 @@
         <v>41</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>20</v>
@@ -2969,10 +3151,10 @@
         <v>203</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>19</v>
@@ -3001,7 +3183,7 @@
         <v>43</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>20</v>
@@ -3013,13 +3195,13 @@
         <v>203</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M8" s="8" t="s">
         <v>25</v>
@@ -3045,7 +3227,7 @@
         <v>45</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>20</v>
@@ -3057,13 +3239,13 @@
         <v>203</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M9" s="8" t="s">
         <v>25</v>
@@ -3089,7 +3271,7 @@
         <v>47</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>20</v>
@@ -3101,13 +3283,13 @@
         <v>203</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M10" s="8" t="s">
         <v>25</v>
@@ -3133,7 +3315,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>20</v>
@@ -3145,13 +3327,13 @@
         <v>203</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M11" s="8" t="s">
         <v>25</v>
@@ -3177,7 +3359,7 @@
         <v>51</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>20</v>
@@ -3189,13 +3371,13 @@
         <v>203</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M12" s="8" t="s">
         <v>25</v>
@@ -3221,7 +3403,7 @@
         <v>53</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>20</v>
@@ -3233,13 +3415,13 @@
         <v>203</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M13" s="8" t="s">
         <v>25</v>
@@ -3265,7 +3447,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>20</v>
@@ -3277,13 +3459,13 @@
         <v>203</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>25</v>
@@ -3309,7 +3491,7 @@
         <v>57</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>20</v>
@@ -3321,13 +3503,13 @@
         <v>203</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M15" s="8" t="s">
         <v>25</v>
@@ -3353,7 +3535,7 @@
         <v>59</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>20</v>
@@ -3365,13 +3547,13 @@
         <v>203</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M16" s="8" t="s">
         <v>25</v>
@@ -3397,7 +3579,7 @@
         <v>61</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>20</v>
@@ -3409,10 +3591,10 @@
         <v>203</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>25</v>
@@ -3441,7 +3623,7 @@
         <v>63</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>20</v>
@@ -3453,13 +3635,13 @@
         <v>203</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M18" s="8" t="s">
         <v>25</v>
@@ -3485,7 +3667,7 @@
         <v>65</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>20</v>
@@ -3497,13 +3679,13 @@
         <v>203</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K19" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M19" s="8" t="s">
         <v>25</v>
@@ -3529,7 +3711,7 @@
         <v>67</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>20</v>
@@ -3541,13 +3723,13 @@
         <v>203</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K20" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M20" s="8" t="s">
         <v>25</v>
@@ -3573,7 +3755,7 @@
         <v>69</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>20</v>
@@ -3585,13 +3767,13 @@
         <v>203</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M21" s="8" t="s">
         <v>25</v>
@@ -3617,7 +3799,7 @@
         <v>71</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>20</v>
@@ -3629,13 +3811,13 @@
         <v>203</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K22" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M22" s="8" t="s">
         <v>25</v>
@@ -3661,7 +3843,7 @@
         <v>73</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>20</v>
@@ -3673,13 +3855,13 @@
         <v>203</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M23" s="8" t="s">
         <v>25</v>
@@ -3705,7 +3887,7 @@
         <v>43</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>20</v>
@@ -3717,13 +3899,13 @@
         <v>203</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M24" s="8" t="s">
         <v>25</v>
@@ -3749,7 +3931,7 @@
         <v>76</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>20</v>
@@ -3761,13 +3943,13 @@
         <v>203</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M25" s="8" t="s">
         <v>25</v>
@@ -3795,12 +3977,14 @@
       <c r="C27" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="24"/>
+      <c r="D27" s="24" t="s">
+        <v>165</v>
+      </c>
       <c r="E27" s="15" t="s">
         <v>80</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>20</v>
@@ -3812,13 +3996,13 @@
         <v>203</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M27" s="8" t="s">
         <v>25</v>
@@ -3840,12 +4024,14 @@
       <c r="C28" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="24"/>
+      <c r="D28" s="24" t="s">
+        <v>165</v>
+      </c>
       <c r="E28" s="15" t="s">
         <v>83</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>20</v>
@@ -3857,13 +4043,13 @@
         <v>203</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>24</v>
+        <v>180</v>
+      </c>
+      <c r="K28" s="40" t="s">
+        <v>164</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M28" s="8" t="s">
         <v>25</v>
@@ -6306,7 +6492,7 @@
         <v>165</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>20</v>
@@ -6347,7 +6533,7 @@
         <v>165</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>333</v>
@@ -6391,7 +6577,7 @@
         <v>165</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>333</v>
@@ -6435,7 +6621,7 @@
         <v>165</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>333</v>
@@ -6479,7 +6665,7 @@
         <v>165</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>333</v>
@@ -6523,7 +6709,7 @@
         <v>165</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>333</v>
@@ -6567,7 +6753,7 @@
         <v>165</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>333</v>
@@ -6611,7 +6797,7 @@
         <v>165</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>333</v>
@@ -6655,7 +6841,7 @@
         <v>165</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>333</v>
@@ -6699,7 +6885,7 @@
         <v>165</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>333</v>
@@ -6743,7 +6929,7 @@
         <v>165</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>333</v>
@@ -6787,7 +6973,7 @@
         <v>165</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>333</v>
@@ -6831,7 +7017,7 @@
         <v>165</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>333</v>
@@ -6875,7 +7061,7 @@
         <v>165</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>333</v>
@@ -6919,7 +7105,7 @@
         <v>165</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>333</v>
@@ -6963,7 +7149,7 @@
         <v>165</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>333</v>
@@ -7007,7 +7193,7 @@
         <v>165</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>333</v>
@@ -7051,7 +7237,7 @@
         <v>165</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>333</v>
@@ -7095,7 +7281,7 @@
         <v>165</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>333</v>
@@ -7139,7 +7325,7 @@
         <v>165</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G109" s="8" t="s">
         <v>333</v>
@@ -7183,7 +7369,7 @@
         <v>165</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G110" s="8" t="s">
         <v>333</v>
@@ -7227,7 +7413,7 @@
         <v>165</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>333</v>

--- a/Airpay_Automation_Framework_MAUserAcceess/AirPayTestData/TestData/Datasheet_Result.xlsx
+++ b/Airpay_Automation_Framework_MAUserAcceess/AirPayTestData/TestData/Datasheet_Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2851" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2942" uniqueCount="341">
   <si>
     <t>ModuleName</t>
   </si>
@@ -1022,6 +1022,21 @@
   </si>
   <si>
     <t>URL_Status 24/04/2019</t>
+  </si>
+  <si>
+    <t>Navigation_Status 25/04/2019</t>
+  </si>
+  <si>
+    <t>URL_Status 25/04/2019</t>
+  </si>
+  <si>
+    <t>Navigation_Status 03/05/2019</t>
+  </si>
+  <si>
+    <t>URL_Status 03/05/2019</t>
+  </si>
+  <si>
+    <t>28626494</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1235,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="330">
+  <cellXfs count="386">
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment/>
       <protection/>
@@ -1969,6 +1984,230 @@
       <protection/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment/>
       <protection/>
     </xf>
@@ -2837,10 +3076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <dimension ref="A1:Y182"/>
+  <dimension ref="A1:AC182"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0" zoomScale="91" zoomScaleNormal="91">
-      <selection activeCell="J6" pane="topLeft" sqref="J6:K25"/>
+    <sheetView topLeftCell="A58" workbookViewId="0" zoomScale="91" zoomScaleNormal="91">
+      <selection activeCell="A71" pane="topLeft" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultRowHeight="15"/>
@@ -2856,13 +3095,13 @@
     <col min="14" max="14" customWidth="true" style="8" width="22.714285714285715" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" style="8" width="36.42857142857143" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" style="8" width="28.428571428571427" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="8" width="21.714285714285715" collapsed="true"/>
-    <col min="18" max="23" style="8" width="9.142857142857142" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="8" width="28.428571428571427" collapsed="true"/>
-    <col min="25" max="16384" style="8" width="9.142857142857142" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="8" width="22.285714285714285" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="8" width="28.428571428571427" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="8" width="22.285714285714285" collapsed="true"/>
+    <col min="20" max="16384" style="8" width="9.142857142857142" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:25">
+    <row ht="15" r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2909,23 +3148,27 @@
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
+        <v>337</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
       <c r="W1" s="5"/>
-      <c r="X1" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>335</v>
-      </c>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
     </row>
     <row ht="15" r="2" spans="1:15">
       <c r="A2" s="118" t="s">
@@ -3075,7 +3318,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row ht="15" r="6" spans="1:24">
+    <row ht="15" r="6" spans="1:17">
       <c r="A6" s="15" t="s">
         <v>201</v>
       </c>
@@ -3092,7 +3335,7 @@
         <v>38</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>20</v>
@@ -3121,11 +3364,14 @@
       <c r="O6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row ht="15" r="7" spans="1:15">
+      <c r="P6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row ht="15" r="7" spans="1:17">
       <c r="A7" s="184" t="s">
         <v>204</v>
       </c>
@@ -3139,7 +3385,7 @@
         <v>41</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>20</v>
@@ -3168,8 +3414,14 @@
       <c r="O7" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="8" spans="1:15">
+      <c r="P7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="8" spans="1:17">
       <c r="A8" s="8" t="s">
         <v>205</v>
       </c>
@@ -3183,7 +3435,7 @@
         <v>43</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>20</v>
@@ -3212,8 +3464,14 @@
       <c r="O8" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="9" spans="1:15">
+      <c r="P8" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="9" spans="1:17">
       <c r="A9" s="8" t="s">
         <v>206</v>
       </c>
@@ -3227,7 +3485,7 @@
         <v>45</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>20</v>
@@ -3256,8 +3514,14 @@
       <c r="O9" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="10" spans="1:15">
+      <c r="P9" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row ht="15" r="10" spans="1:17">
       <c r="A10" s="8" t="s">
         <v>207</v>
       </c>
@@ -3271,7 +3535,7 @@
         <v>47</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>20</v>
@@ -3300,8 +3564,14 @@
       <c r="O10" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="11" spans="1:15">
+      <c r="P10" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row ht="15" r="11" spans="1:17">
       <c r="A11" s="8" t="s">
         <v>208</v>
       </c>
@@ -3315,7 +3585,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>20</v>
@@ -3344,8 +3614,14 @@
       <c r="O11" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="12" spans="1:15">
+      <c r="P11" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="12" spans="1:17">
       <c r="A12" s="8" t="s">
         <v>209</v>
       </c>
@@ -3359,7 +3635,7 @@
         <v>51</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>20</v>
@@ -3388,8 +3664,14 @@
       <c r="O12" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="13" spans="1:15">
+      <c r="P12" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="13" spans="1:17">
       <c r="A13" s="8" t="s">
         <v>210</v>
       </c>
@@ -3403,7 +3685,7 @@
         <v>53</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>20</v>
@@ -3432,8 +3714,14 @@
       <c r="O13" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="14" spans="1:15">
+      <c r="P13" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="14" spans="1:17">
       <c r="A14" s="8" t="s">
         <v>211</v>
       </c>
@@ -3447,7 +3735,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>20</v>
@@ -3476,8 +3764,14 @@
       <c r="O14" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="15" spans="1:15">
+      <c r="P14" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="15" spans="1:17">
       <c r="A15" s="8" t="s">
         <v>212</v>
       </c>
@@ -3491,7 +3785,7 @@
         <v>57</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>20</v>
@@ -3520,8 +3814,14 @@
       <c r="O15" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="16" spans="1:15">
+      <c r="P15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="16" spans="1:17">
       <c r="A16" s="8" t="s">
         <v>213</v>
       </c>
@@ -3535,7 +3835,7 @@
         <v>59</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>20</v>
@@ -3564,8 +3864,14 @@
       <c r="O16" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="17" spans="1:15">
+      <c r="P16" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row ht="15" r="17" spans="1:17">
       <c r="A17" s="8" t="s">
         <v>214</v>
       </c>
@@ -3579,7 +3885,7 @@
         <v>61</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>20</v>
@@ -3608,8 +3914,14 @@
       <c r="O17" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="18" spans="1:15">
+      <c r="P17" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="18" spans="1:17">
       <c r="A18" s="8" t="s">
         <v>215</v>
       </c>
@@ -3623,7 +3935,7 @@
         <v>63</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>20</v>
@@ -3652,8 +3964,14 @@
       <c r="O18" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="19" spans="1:15">
+      <c r="P18" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="19" spans="1:17">
       <c r="A19" s="8" t="s">
         <v>216</v>
       </c>
@@ -3667,7 +3985,7 @@
         <v>65</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>20</v>
@@ -3696,8 +4014,14 @@
       <c r="O19" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="20" spans="1:15">
+      <c r="P19" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row ht="15" r="20" spans="1:17">
       <c r="A20" s="8" t="s">
         <v>217</v>
       </c>
@@ -3711,7 +4035,7 @@
         <v>67</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>20</v>
@@ -3740,8 +4064,14 @@
       <c r="O20" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="21" spans="1:15">
+      <c r="P20" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row ht="15" r="21" spans="1:17">
       <c r="A21" s="8" t="s">
         <v>218</v>
       </c>
@@ -3755,7 +4085,7 @@
         <v>69</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>20</v>
@@ -3784,8 +4114,14 @@
       <c r="O21" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="22" spans="1:15">
+      <c r="P21" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row ht="15" r="22" spans="1:17">
       <c r="A22" s="8" t="s">
         <v>219</v>
       </c>
@@ -3799,7 +4135,7 @@
         <v>71</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>20</v>
@@ -3828,8 +4164,14 @@
       <c r="O22" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="23" spans="1:15">
+      <c r="P22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="23" spans="1:17">
       <c r="A23" s="8" t="s">
         <v>220</v>
       </c>
@@ -3843,7 +4185,7 @@
         <v>73</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>20</v>
@@ -3872,8 +4214,14 @@
       <c r="O23" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="24" spans="1:15">
+      <c r="P23" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="24" spans="1:17">
       <c r="A24" s="8" t="s">
         <v>221</v>
       </c>
@@ -3887,7 +4235,7 @@
         <v>43</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>20</v>
@@ -3916,8 +4264,14 @@
       <c r="O24" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="25" spans="1:15">
+      <c r="P24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="25" spans="1:17">
       <c r="A25" s="23" t="s">
         <v>222</v>
       </c>
@@ -3931,7 +4285,7 @@
         <v>76</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>20</v>
@@ -3959,6 +4313,12 @@
       </c>
       <c r="O25" s="13" t="s">
         <v>26</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row ht="15" r="26" spans="4:12">
@@ -3967,7 +4327,7 @@
       <c r="F26" s="8"/>
       <c r="L26" s="12"/>
     </row>
-    <row ht="15" r="27" spans="1:15">
+    <row ht="15" r="27" spans="1:17">
       <c r="A27" s="15" t="s">
         <v>223</v>
       </c>
@@ -3984,7 +4344,7 @@
         <v>80</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>20</v>
@@ -4013,8 +4373,14 @@
       <c r="O27" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="28" spans="1:15">
+      <c r="P27" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="28" spans="1:17">
       <c r="A28" s="15" t="s">
         <v>224</v>
       </c>
@@ -4031,7 +4397,7 @@
         <v>83</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>20</v>
@@ -4059,6 +4425,12 @@
       </c>
       <c r="O28" s="13" t="s">
         <v>26</v>
+      </c>
+      <c r="P28" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row ht="15" r="29" spans="1:15">
@@ -5650,7 +6022,7 @@
       <c r="F68" s="8"/>
       <c r="L68" s="7"/>
     </row>
-    <row ht="15" r="69" spans="1:15">
+    <row ht="15" r="69" spans="1:19">
       <c r="A69" s="8" t="s">
         <v>258</v>
       </c>
@@ -5667,7 +6039,7 @@
         <v>166</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>20</v>
@@ -5679,10 +6051,10 @@
         <v>254</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="K69" s="11" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="L69" s="8" t="s">
         <v>25</v>
@@ -5696,8 +6068,14 @@
       <c r="O69" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="70" spans="1:15">
+      <c r="R69" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S69" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="70" spans="1:19">
       <c r="A70" s="8" t="s">
         <v>262</v>
       </c>
@@ -5714,7 +6092,7 @@
         <v>167</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>20</v>
@@ -5726,10 +6104,10 @@
         <v>254</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="K70" s="11" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="L70" s="8" t="s">
         <v>25</v>
@@ -5743,8 +6121,14 @@
       <c r="O70" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="71" spans="1:15">
+      <c r="R70" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S70" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="71" spans="1:19">
       <c r="A71" s="15" t="s">
         <v>263</v>
       </c>
@@ -5754,12 +6138,14 @@
       <c r="C71" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="D71" s="15"/>
+      <c r="D71" s="15" t="s">
+        <v>165</v>
+      </c>
       <c r="E71" s="15" t="s">
         <v>168</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>20</v>
@@ -5771,10 +6157,10 @@
         <v>203</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="K71" s="11" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="L71" s="8" t="s">
         <v>25</v>
@@ -5788,8 +6174,14 @@
       <c r="O71" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="72" spans="1:15">
+      <c r="R71" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S71" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="72" spans="1:19">
       <c r="A72" s="16" t="s">
         <v>264</v>
       </c>
@@ -5799,12 +6191,14 @@
       <c r="C72" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="D72" s="16"/>
+      <c r="D72" s="16" t="s">
+        <v>165</v>
+      </c>
       <c r="E72" s="16" t="s">
         <v>169</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>20</v>
@@ -5816,10 +6210,10 @@
         <v>203</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="K72" s="11" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="L72" s="8" t="s">
         <v>25</v>
@@ -5833,8 +6227,14 @@
       <c r="O72" s="13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row ht="15" r="73" spans="1:15">
+      <c r="R72" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S72" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="73" spans="1:19">
       <c r="A73" s="16" t="s">
         <v>265</v>
       </c>
@@ -5844,12 +6244,14 @@
       <c r="C73" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="D73" s="16"/>
+      <c r="D73" s="16" t="s">
+        <v>165</v>
+      </c>
       <c r="E73" s="187" t="s">
         <v>170</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>20</v>
@@ -5861,10 +6263,10 @@
         <v>203</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>23</v>
+        <v>180</v>
       </c>
       <c r="K73" s="11" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="L73" s="8" t="s">
         <v>25</v>
@@ -5877,6 +6279,12 @@
       </c>
       <c r="O73" s="13" t="s">
         <v>26</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="S73" s="5" t="s">
+        <v>128</v>
       </c>
     </row>
     <row ht="15" r="74" spans="5:12">
@@ -6522,7 +6930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row ht="15" r="91" spans="1:16">
+    <row ht="15" r="91" spans="1:15">
       <c r="A91" s="15" t="s">
         <v>302</v>
       </c>
@@ -6562,11 +6970,8 @@
       <c r="O91" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P91" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="92" spans="1:16">
+    </row>
+    <row ht="15" r="92" spans="1:15">
       <c r="A92" s="15" t="s">
         <v>304</v>
       </c>
@@ -6606,11 +7011,8 @@
       <c r="O92" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P92" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="93" spans="1:16">
+    </row>
+    <row ht="15" r="93" spans="1:15">
       <c r="A93" s="15" t="s">
         <v>306</v>
       </c>
@@ -6650,11 +7052,8 @@
       <c r="O93" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P93" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="94" spans="1:16">
+    </row>
+    <row ht="15" r="94" spans="1:15">
       <c r="A94" s="15" t="s">
         <v>307</v>
       </c>
@@ -6694,11 +7093,8 @@
       <c r="O94" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P94" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="95" spans="1:16">
+    </row>
+    <row ht="15" r="95" spans="1:15">
       <c r="A95" s="15" t="s">
         <v>308</v>
       </c>
@@ -6738,11 +7134,8 @@
       <c r="O95" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P95" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="96" spans="1:16">
+    </row>
+    <row ht="15" r="96" spans="1:15">
       <c r="A96" s="15" t="s">
         <v>309</v>
       </c>
@@ -6782,11 +7175,8 @@
       <c r="O96" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P96" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="97" spans="1:16">
+    </row>
+    <row ht="15" r="97" spans="1:15">
       <c r="A97" s="8" t="s">
         <v>310</v>
       </c>
@@ -6826,11 +7216,8 @@
       <c r="O97" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P97" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="98" spans="1:16">
+    </row>
+    <row ht="15" r="98" spans="1:15">
       <c r="A98" s="15" t="s">
         <v>311</v>
       </c>
@@ -6870,11 +7257,8 @@
       <c r="O98" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P98" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="99" spans="1:16">
+    </row>
+    <row ht="15" r="99" spans="1:15">
       <c r="A99" s="15" t="s">
         <v>313</v>
       </c>
@@ -6914,11 +7298,8 @@
       <c r="O99" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P99" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="100" spans="1:16">
+    </row>
+    <row ht="15" r="100" spans="1:15">
       <c r="A100" s="15" t="s">
         <v>314</v>
       </c>
@@ -6958,11 +7339,8 @@
       <c r="O100" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P100" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="101" spans="1:16">
+    </row>
+    <row ht="15" r="101" spans="1:15">
       <c r="A101" s="15" t="s">
         <v>329</v>
       </c>
@@ -7002,11 +7380,8 @@
       <c r="O101" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P101" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="102" spans="1:16">
+    </row>
+    <row ht="15" r="102" spans="1:15">
       <c r="A102" s="15" t="s">
         <v>330</v>
       </c>
@@ -7046,11 +7421,8 @@
       <c r="O102" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P102" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="103" spans="1:16">
+    </row>
+    <row ht="15" r="103" spans="1:15">
       <c r="A103" s="15" t="s">
         <v>317</v>
       </c>
@@ -7090,11 +7462,8 @@
       <c r="O103" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P103" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="104" spans="1:16">
+    </row>
+    <row ht="15" r="104" spans="1:15">
       <c r="A104" s="15" t="s">
         <v>318</v>
       </c>
@@ -7134,11 +7503,8 @@
       <c r="O104" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P104" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="105" spans="1:16">
+    </row>
+    <row ht="15" r="105" spans="1:15">
       <c r="A105" s="15" t="s">
         <v>319</v>
       </c>
@@ -7178,11 +7544,8 @@
       <c r="O105" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P105" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="106" spans="1:16">
+    </row>
+    <row ht="15" r="106" spans="1:15">
       <c r="A106" s="15" t="s">
         <v>331</v>
       </c>
@@ -7222,11 +7585,8 @@
       <c r="O106" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P106" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="107" spans="1:16">
+    </row>
+    <row ht="15" r="107" spans="1:15">
       <c r="A107" s="15" t="s">
         <v>321</v>
       </c>
@@ -7266,11 +7626,8 @@
       <c r="O107" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P107" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="108" spans="1:16">
+    </row>
+    <row ht="15" r="108" spans="1:15">
       <c r="A108" s="15" t="s">
         <v>322</v>
       </c>
@@ -7310,11 +7667,8 @@
       <c r="O108" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P108" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="109" spans="1:16">
+    </row>
+    <row ht="15" r="109" spans="1:15">
       <c r="A109" s="15" t="s">
         <v>323</v>
       </c>
@@ -7354,11 +7708,8 @@
       <c r="O109" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P109" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="110" spans="1:16">
+    </row>
+    <row ht="15" r="110" spans="1:15">
       <c r="A110" s="15" t="s">
         <v>324</v>
       </c>
@@ -7398,11 +7749,8 @@
       <c r="O110" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="P110" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="111" spans="1:16">
+    </row>
+    <row ht="15" r="111" spans="1:15">
       <c r="A111" s="15" t="s">
         <v>325</v>
       </c>
@@ -7441,9 +7789,6 @@
       </c>
       <c r="O111" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="P111" s="5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row ht="15" r="112">

--- a/Airpay_Automation_Framework_MAUserAcceess/AirPayTestData/TestData/Datasheet_Result.xlsx
+++ b/Airpay_Automation_Framework_MAUserAcceess/AirPayTestData/TestData/Datasheet_Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2942" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3339" uniqueCount="356">
   <si>
     <t>ModuleName</t>
   </si>
@@ -1037,6 +1037,51 @@
   </si>
   <si>
     <t>28626494</t>
+  </si>
+  <si>
+    <t>Navigation_Status 30/04/2019</t>
+  </si>
+  <si>
+    <t>URL_Status 30/04/2019</t>
+  </si>
+  <si>
+    <t>NeedToSelectMerchant</t>
+  </si>
+  <si>
+    <t>Navigation_Status 22/05/2019</t>
+  </si>
+  <si>
+    <t>URL_Status 22/05/2019</t>
+  </si>
+  <si>
+    <t>Merchant_ID</t>
+  </si>
+  <si>
+    <t>18999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All (Pay Mode) </t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>Merchant Manager</t>
+  </si>
+  <si>
+    <t>Payment mode</t>
+  </si>
+  <si>
+    <t>Airpay settings</t>
+  </si>
+  <si>
+    <t>Navigation_Status 23/05/2019</t>
+  </si>
+  <si>
+    <t>URL_Status 23/05/2019</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1089,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1133,8 +1178,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -1171,8 +1224,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2D02B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF7F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1208,6 +1279,14 @@
         <color auto="1"/>
       </bottom>
     </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -1235,7 +1314,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="386">
+  <cellXfs count="514">
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment/>
       <protection/>
@@ -2675,6 +2754,467 @@
       <alignment/>
       <protection/>
     </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="4" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="left"/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="8" fontId="13" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="8" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="5" fontId="13" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyProtection="1" borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="9" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyProtection="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="5" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0"/>
@@ -2685,6 +3225,14 @@
     <cellStyle name="Comma [0]" xfId="19"/>
     <cellStyle name="Hyperlink" xfId="20"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <color rgb="FF000000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3076,111 +3624,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <dimension ref="A1:AC182"/>
+  <dimension ref="A1:AM182"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0" zoomScale="91" zoomScaleNormal="91">
-      <selection activeCell="A71" pane="topLeft" sqref="A71"/>
+    <sheetView topLeftCell="A24" workbookViewId="0" zoomScale="91" zoomScaleNormal="91">
+      <selection activeCell="A48" pane="topLeft" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" customWidth="true" style="8" width="33.714285714285715" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="37" width="29.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="8" width="13.714285714285714" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="8" width="34.285714285714285" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="8" width="28.142857142857142" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" style="8" width="28.142857142857142" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="38" width="16.857142857142858" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="8" width="22.714285714285715" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="8" width="22.714285714285715" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="8" width="36.42857142857143" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="8" width="28.428571428571427" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="8" width="22.285714285714285" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="8" width="28.428571428571427" collapsed="true"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="8" width="22.285714285714285" collapsed="true"/>
-    <col min="20" max="16384" style="8" width="9.142857142857142" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="395" width="8.714285714285714" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="8" width="13.714285714285714" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="8" width="8.285714285714286" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="8" width="36.285714285714285" collapsed="true"/>
+    <col min="10" max="10" style="8" width="11.428571428571429" collapsed="true"/>
+    <col min="11" max="13" customWidth="true" style="8" width="28.142857142857142" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="38" width="16.857142857142858" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="8" width="17.142857142857142" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="8" width="15.285714285714286" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="8" width="36.42857142857143" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="8" width="28.428571428571427" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="8" width="22.285714285714285" collapsed="true"/>
+    <col min="20" max="21" customWidth="true" style="8" width="9.142857142857142" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="8" width="28.428571428571427" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="8" width="22.285714285714285" collapsed="true"/>
+    <col min="24" max="29" customWidth="true" style="8" width="9.142857142857142" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="8" width="28.428571428571427" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="8" width="22.285714285714285" collapsed="true"/>
+    <col min="32" max="1027" customWidth="true" style="8" width="9.142857142857142" collapsed="true"/>
+    <col min="1028" max="16384" customWidth="true" style="395" width="9.142857142857142" collapsed="false"/>
   </cols>
   <sheetData>
-    <row ht="15" r="1" spans="1:29">
-      <c r="A1" s="2" t="s">
+    <row ht="15" r="1" spans="1:39">
+      <c r="A1" s="386" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="386" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="386" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="386" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="386" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="386" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="386" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="386" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="386" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="386" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="386" t="s">
+        <v>343</v>
+      </c>
+      <c r="M1" s="386" t="s">
+        <v>346</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="386" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="386" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="386" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-    </row>
-    <row ht="15" r="2" spans="1:15">
-      <c r="A2" s="118" t="s">
+      <c r="Z1" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB1" s="395" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC1" s="395" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD1" s="395" t="s">
+        <v>354</v>
+      </c>
+      <c r="AE1" s="395" t="s">
+        <v>355</v>
+      </c>
+      <c r="AF1" s="395"/>
+      <c r="AG1" s="395"/>
+      <c r="AH1" s="395"/>
+      <c r="AI1" s="395"/>
+      <c r="AJ1" s="395"/>
+      <c r="AK1" s="395"/>
+      <c r="AL1" s="395"/>
+      <c r="AM1" s="395"/>
+    </row>
+    <row ht="15" r="2" spans="1:19">
+      <c r="A2" s="387" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="387" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="C2" s="387"/>
+      <c r="D2" s="386"/>
       <c r="E2" s="9" t="s">
         <v>18</v>
       </c>
@@ -3190,43 +3765,51 @@
       <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="119" t="s">
+      <c r="H2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="3" spans="1:15">
-      <c r="A3" s="24" t="s">
+      <c r="J2" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K2" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L2" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="389"/>
+      <c r="N2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="3" spans="1:19">
+      <c r="A3" s="391" t="s">
         <v>195</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="391" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="C3" s="391"/>
+      <c r="D3" s="392"/>
+      <c r="E3" s="9" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -3235,39 +3818,49 @@
       <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="119" t="s">
+      <c r="H3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K3" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="4" spans="1:15">
+      <c r="J3" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K3" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="389"/>
+      <c r="N3" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="4" spans="1:19">
       <c r="A4" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -3276,62 +3869,59 @@
       <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="5" spans="1:15">
+      <c r="J4" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L4" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="389"/>
+      <c r="N4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="15" r="5" s="8" spans="1:14">
       <c r="A5" s="18"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
-      <c r="D5" s="8"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row ht="15" r="6" spans="1:17">
-      <c r="A6" s="15" t="s">
+      <c r="N5" s="12"/>
+    </row>
+    <row ht="15" r="6" spans="1:19">
+      <c r="A6" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -3340,48 +3930,54 @@
       <c r="G6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="15" t="s">
+      <c r="H6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K6" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="5" t="s">
+      <c r="J6" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K6" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L6" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" s="389" t="s">
+        <v>165</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="S6" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="Q6" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row ht="15" r="7" spans="1:17">
+    </row>
+    <row ht="15" r="7" spans="1:19">
       <c r="A7" s="184" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C7" s="184" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="9" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -3390,48 +3986,54 @@
       <c r="G7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="15" t="s">
+      <c r="H7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="8" spans="1:17">
-      <c r="A8" s="8" t="s">
+      <c r="J7" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K7" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L7" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="393" t="s">
+        <v>188</v>
+      </c>
+      <c r="S7" s="393" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="8" spans="1:19">
+      <c r="A8" s="393" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="9" t="s">
         <v>43</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -3440,48 +4042,54 @@
       <c r="G8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="15" t="s">
+      <c r="H8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="9" spans="1:17">
+      <c r="J8" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L8" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="393" t="s">
+        <v>188</v>
+      </c>
+      <c r="S8" s="393" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="9" spans="1:19">
       <c r="A9" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="9" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -3490,48 +4098,54 @@
       <c r="G9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="15" t="s">
+      <c r="H9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="5" t="s">
+      <c r="J9" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K9" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L9" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q9" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="393" t="s">
         <v>188</v>
       </c>
-      <c r="Q9" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row ht="15" r="10" spans="1:17">
+      <c r="S9" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="10" spans="1:19">
       <c r="A10" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="9" t="s">
         <v>47</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -3540,148 +4154,128 @@
       <c r="G10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="15" t="s">
+      <c r="H10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="5" t="s">
+      <c r="J10" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K10" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L10" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M10" s="389"/>
+      <c r="N10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="393" t="s">
         <v>188</v>
       </c>
-      <c r="Q10" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row ht="15" r="11" spans="1:17">
+      <c r="S10" s="393" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="11" spans="1:13">
       <c r="A11" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="9" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="12" spans="1:17">
+      <c r="L11" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="389"/>
+    </row>
+    <row customFormat="1" ht="15" r="12" s="12" spans="1:19">
       <c r="A12" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="15" t="s">
+      <c r="H12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="419" t="s">
         <v>203</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K12" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L12" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="13" spans="1:17">
+      <c r="J12" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="K12" s="420" t="s">
+        <v>173</v>
+      </c>
+      <c r="L12" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="389"/>
+      <c r="N12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="421" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="S12" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="13" spans="1:19">
       <c r="A13" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="9" t="s">
         <v>53</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -3690,48 +4284,52 @@
       <c r="G13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="15" t="s">
+      <c r="H13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J13" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K13" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="14" spans="1:17">
+      <c r="J13" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L13" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" s="389"/>
+      <c r="N13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="S13" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="14" spans="1:19">
       <c r="A14" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="9" t="s">
         <v>55</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -3740,48 +4338,54 @@
       <c r="G14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="15" t="s">
+      <c r="H14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="15" spans="1:17">
+      <c r="J14" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L14" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q14" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="S14" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="15" spans="1:19">
       <c r="A15" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="9" t="s">
         <v>57</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -3790,48 +4394,52 @@
       <c r="G15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="15" t="s">
+      <c r="H15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K15" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="16" spans="1:17">
+      <c r="J15" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K15" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L15" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="389"/>
+      <c r="N15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q15" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="S15" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="16" spans="1:19">
       <c r="A16" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -3840,48 +4448,50 @@
       <c r="G16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="15" t="s">
+      <c r="H16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row ht="15" r="17" spans="1:17">
+      <c r="J16" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="389"/>
+      <c r="N16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="33"/>
+      <c r="S16" s="422" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="17" spans="1:19">
       <c r="A17" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="9" t="s">
         <v>61</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -3890,48 +4500,52 @@
       <c r="G17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="15" t="s">
+      <c r="H17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K17" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O17" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P17" s="5" t="s">
+      <c r="J17" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="33"/>
+      <c r="S17" s="422" t="s">
         <v>128</v>
       </c>
-      <c r="Q17" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="18" spans="1:17">
+    </row>
+    <row ht="15" r="18" spans="1:19">
       <c r="A18" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="9" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -3940,48 +4554,52 @@
       <c r="G18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="15" t="s">
+      <c r="H18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K18" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="19" spans="1:17">
+      <c r="J18" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K18" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L18" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="389"/>
+      <c r="N18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="S18" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="19" spans="1:19">
       <c r="A19" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="9" t="s">
         <v>65</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -3990,48 +4608,52 @@
       <c r="G19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="15" t="s">
+      <c r="H19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J19" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K19" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" s="5" t="s">
+      <c r="J19" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" s="389"/>
+      <c r="N19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="393" t="s">
         <v>188</v>
       </c>
-      <c r="Q19" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row ht="15" r="20" spans="1:17">
+      <c r="S19" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="20" spans="1:19">
       <c r="A20" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="9" t="s">
         <v>67</v>
       </c>
       <c r="F20" s="8" t="s">
@@ -4040,48 +4662,52 @@
       <c r="G20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="15" t="s">
+      <c r="H20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J20" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K20" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row ht="15" r="21" spans="1:17">
+      <c r="J20" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M20" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="393"/>
+      <c r="S20" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="21" spans="1:19">
       <c r="A21" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="9" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="8" t="s">
@@ -4090,48 +4716,52 @@
       <c r="G21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="15" t="s">
+      <c r="H21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K21" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="5" t="s">
+      <c r="J21" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M21" s="389"/>
+      <c r="N21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" s="393" t="s">
         <v>188</v>
       </c>
-      <c r="Q21" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row ht="15" r="22" spans="1:17">
+      <c r="S21" s="393" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="22" spans="1:19">
       <c r="A22" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="9" t="s">
         <v>71</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -4140,42 +4770,46 @@
       <c r="G22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="15" t="s">
+      <c r="H22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K22" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="23" spans="1:17">
+      <c r="J22" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K22" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L22" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M22" s="389"/>
+      <c r="N22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R22" s="393" t="s">
+        <v>188</v>
+      </c>
+      <c r="S22" s="393" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="23" spans="1:19">
       <c r="A23" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -4190,48 +4824,54 @@
       <c r="G23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="15" t="s">
+      <c r="H23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K23" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O23" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q23" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="24" spans="1:17">
+      <c r="J23" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K23" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M23" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q23" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23" s="393" t="s">
+        <v>188</v>
+      </c>
+      <c r="S23" s="393" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="24" spans="1:19">
       <c r="A24" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="9" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="8" t="s">
@@ -4240,48 +4880,54 @@
       <c r="G24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="15" t="s">
+      <c r="H24" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K24" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O24" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q24" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="25" spans="1:17">
+      <c r="J24" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K24" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L24" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M24" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" s="393" t="s">
+        <v>188</v>
+      </c>
+      <c r="S24" s="393" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="25" spans="1:19">
       <c r="A25" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="9" t="s">
         <v>202</v>
       </c>
       <c r="C25" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="33" t="s">
         <v>76</v>
       </c>
       <c r="F25" s="8" t="s">
@@ -4290,57 +4936,60 @@
       <c r="G25" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="15" t="s">
+      <c r="H25" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J25" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K25" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P25" s="5" t="s">
+      <c r="J25" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K25" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L25" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q25" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" s="393" t="s">
         <v>188</v>
       </c>
-      <c r="Q25" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row ht="15" r="26" spans="4:12">
+      <c r="S25" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="15" r="26" s="8" spans="4:14">
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
-      <c r="L26" s="12"/>
-    </row>
-    <row ht="15" r="27" spans="1:17">
-      <c r="A27" s="15" t="s">
+      <c r="N26" s="12"/>
+    </row>
+    <row ht="15" r="27" spans="1:19">
+      <c r="A27" s="9" t="s">
         <v>223</v>
       </c>
       <c r="B27" s="181" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="391" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="391"/>
+      <c r="E27" s="9" t="s">
         <v>80</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -4349,51 +4998,49 @@
       <c r="G27" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="15" t="s">
+      <c r="H27" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J27" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K27" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L27" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="28" spans="1:17">
-      <c r="A28" s="15" t="s">
+      <c r="J27" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K27" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L27" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="389"/>
+      <c r="N27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q27" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+    </row>
+    <row ht="15" r="28" spans="1:19">
+      <c r="A28" s="9" t="s">
         <v>224</v>
       </c>
       <c r="B28" s="181" t="s">
         <v>227</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="391" t="s">
         <v>82</v>
       </c>
-      <c r="D28" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="391"/>
+      <c r="E28" s="9" t="s">
         <v>83</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -4402,65 +5049,55 @@
       <c r="G28" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="15" t="s">
+      <c r="H28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K28" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L28" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="M28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O28" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="P28" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q28" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row ht="15" r="29" spans="1:15">
-      <c r="A29" s="8"/>
-      <c r="B29" s="178"/>
-      <c r="C29" s="178"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="37"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-    </row>
-    <row ht="15" r="30" spans="1:15">
-      <c r="A30" s="15" t="s">
+      <c r="J28" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K28" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L28" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M28" s="389"/>
+      <c r="N28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q28" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+    </row>
+    <row ht="15" r="29" spans="2:19">
+      <c r="B29" s="394"/>
+      <c r="C29" s="394"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+    </row>
+    <row ht="15" r="30" spans="1:23">
+      <c r="A30" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
         <v>86</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -4469,43 +5106,53 @@
       <c r="G30" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="15" t="s">
+      <c r="H30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O30" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="31" spans="1:15">
-      <c r="A31" s="15" t="s">
+      <c r="J30" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K30" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L30" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M30" s="389"/>
+      <c r="N30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V30" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="W30" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="31" spans="1:23">
+      <c r="A31" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15" t="s">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
         <v>89</v>
       </c>
       <c r="F31" s="8" t="s">
@@ -4514,43 +5161,53 @@
       <c r="G31" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="15" t="s">
+      <c r="H31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J31" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N31" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O31" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="32" spans="1:15">
-      <c r="A32" s="15" t="s">
+      <c r="J31" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K31" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L31" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="389"/>
+      <c r="N31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="W31" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="32" spans="1:23">
+      <c r="A32" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15" t="s">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
         <v>91</v>
       </c>
       <c r="F32" s="8" t="s">
@@ -4559,43 +5216,53 @@
       <c r="G32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="15" t="s">
+      <c r="H32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J32" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O32" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="33" spans="1:15">
-      <c r="A33" s="15" t="s">
+      <c r="J32" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K32" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L32" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M32" s="389"/>
+      <c r="N32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="W32" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="33" spans="1:23">
+      <c r="A33" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15" t="s">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
         <v>93</v>
       </c>
       <c r="F33" s="8" t="s">
@@ -4604,43 +5271,53 @@
       <c r="G33" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="15" t="s">
+      <c r="H33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O33" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="34" spans="1:15">
-      <c r="A34" s="15" t="s">
+      <c r="J33" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K33" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L33" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M33" s="389"/>
+      <c r="N33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P33" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V33" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="W33" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="34" spans="1:23">
+      <c r="A34" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15" t="s">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
         <v>95</v>
       </c>
       <c r="F34" s="8" t="s">
@@ -4649,43 +5326,53 @@
       <c r="G34" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="15" t="s">
+      <c r="H34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J34" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L34" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O34" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="35" spans="1:15">
-      <c r="A35" s="15" t="s">
+      <c r="J34" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K34" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L34" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="389"/>
+      <c r="N34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V34" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="W34" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="35" spans="1:23">
+      <c r="A35" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15" t="s">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
         <v>97</v>
       </c>
       <c r="F35" s="8" t="s">
@@ -4694,43 +5381,55 @@
       <c r="G35" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="15" t="s">
+      <c r="H35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J35" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K35" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O35" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="36" spans="1:15">
-      <c r="A36" s="15" t="s">
+      <c r="J35" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K35" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L35" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="389"/>
+      <c r="N35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V35" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="W35" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="36" spans="1:23">
+      <c r="A36" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="21" t="s">
+      <c r="D36" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="33" t="s">
         <v>99</v>
       </c>
       <c r="F36" s="8" t="s">
@@ -4739,43 +5438,55 @@
       <c r="G36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="15" t="s">
+      <c r="H36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J36" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O36" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="37" spans="1:15">
-      <c r="A37" s="15" t="s">
+      <c r="J36" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K36" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L36" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M36" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V36" s="393" t="s">
+        <v>188</v>
+      </c>
+      <c r="W36" s="393" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row ht="15" r="37" spans="1:23">
+      <c r="A37" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
         <v>101</v>
       </c>
       <c r="F37" s="8" t="s">
@@ -4784,43 +5495,53 @@
       <c r="G37" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="15" t="s">
+      <c r="H37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M37" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O37" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="38" spans="1:15">
-      <c r="A38" s="15" t="s">
+      <c r="J37" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K37" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L37" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" s="389"/>
+      <c r="N37" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V37" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="W37" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="38" spans="1:23">
+      <c r="A38" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15" t="s">
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
         <v>103</v>
       </c>
       <c r="F38" s="8" t="s">
@@ -4829,43 +5550,53 @@
       <c r="G38" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="15" t="s">
+      <c r="H38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O38" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="39" spans="1:15">
-      <c r="A39" s="15" t="s">
+      <c r="J38" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K38" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L38" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M38" s="389"/>
+      <c r="N38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V38" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="W38" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="39" spans="1:23">
+      <c r="A39" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
         <v>105</v>
       </c>
       <c r="F39" s="8" t="s">
@@ -4874,43 +5605,53 @@
       <c r="G39" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="15" t="s">
+      <c r="H39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J39" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L39" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O39" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="40" spans="1:15">
-      <c r="A40" s="15" t="s">
+      <c r="J39" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K39" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L39" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="389"/>
+      <c r="N39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q39" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V39" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="W39" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="40" spans="1:23">
+      <c r="A40" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15" t="s">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
         <v>107</v>
       </c>
       <c r="F40" s="8" t="s">
@@ -4919,43 +5660,53 @@
       <c r="G40" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="15" t="s">
+      <c r="H40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L40" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M40" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O40" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="41" spans="1:15">
-      <c r="A41" s="15" t="s">
+      <c r="J40" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K40" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L40" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M40" s="389"/>
+      <c r="N40" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q40" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V40" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="W40" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="41" spans="1:23">
+      <c r="A41" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15" t="s">
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
         <v>109</v>
       </c>
       <c r="F41" s="8" t="s">
@@ -4964,43 +5715,53 @@
       <c r="G41" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="15" t="s">
+      <c r="H41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J41" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K41" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L41" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O41" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="42" spans="1:15">
-      <c r="A42" s="15" t="s">
+      <c r="J41" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K41" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L41" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" s="389"/>
+      <c r="N41" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V41" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="W41" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="42" spans="1:23">
+      <c r="A42" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15" t="s">
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
         <v>111</v>
       </c>
       <c r="F42" s="8" t="s">
@@ -5009,43 +5770,53 @@
       <c r="G42" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="15" t="s">
+      <c r="H42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J42" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L42" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N42" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O42" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="43" spans="1:15">
-      <c r="A43" s="15" t="s">
+      <c r="J42" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K42" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L42" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" s="389"/>
+      <c r="N42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q42" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V42" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="W42" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="43" spans="1:23">
+      <c r="A43" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15" t="s">
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
         <v>113</v>
       </c>
       <c r="F43" s="8" t="s">
@@ -5054,43 +5825,53 @@
       <c r="G43" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43" s="15" t="s">
+      <c r="H43" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J43" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K43" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O43" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="44" spans="1:15">
-      <c r="A44" s="15" t="s">
+      <c r="J43" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K43" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L43" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M43" s="389"/>
+      <c r="N43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P43" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q43" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V43" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="W43" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="44" spans="1:23">
+      <c r="A44" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15" t="s">
+      <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
         <v>115</v>
       </c>
       <c r="F44" s="8" t="s">
@@ -5099,43 +5880,55 @@
       <c r="G44" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H44" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="15" t="s">
+      <c r="H44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J44" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O44" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="45" spans="1:15">
-      <c r="A45" s="15" t="s">
+      <c r="J44" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K44" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L44" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M44" s="389"/>
+      <c r="N44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q44" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V44" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="W44" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="45" spans="1:23">
+      <c r="A45" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="15"/>
-      <c r="E45" s="21" t="s">
+      <c r="D45" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="33" t="s">
         <v>117</v>
       </c>
       <c r="F45" s="8" t="s">
@@ -5144,43 +5937,55 @@
       <c r="G45" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="15" t="s">
+      <c r="H45" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J45" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L45" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N45" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O45" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="30" r="46" spans="1:15">
-      <c r="A46" s="15" t="s">
+      <c r="J45" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K45" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L45" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N45" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P45" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q45" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V45" s="393" t="s">
+        <v>188</v>
+      </c>
+      <c r="W45" s="393" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row ht="30" r="46" spans="1:23">
+      <c r="A46" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="42" t="s">
+      <c r="D46" s="9"/>
+      <c r="E46" s="34" t="s">
         <v>119</v>
       </c>
       <c r="F46" s="8" t="s">
@@ -5189,43 +5994,53 @@
       <c r="G46" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="15" t="s">
+      <c r="H46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J46" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L46" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M46" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N46" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O46" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="47" spans="1:15">
-      <c r="A47" s="15" t="s">
+      <c r="J46" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K46" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L46" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M46" s="389"/>
+      <c r="N46" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P46" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q46" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V46" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="W46" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="47" spans="1:23">
+      <c r="A47" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15" t="s">
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
         <v>121</v>
       </c>
       <c r="F47" s="8" t="s">
@@ -5234,594 +6049,767 @@
       <c r="G47" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="15" t="s">
+      <c r="H47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I47" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J47" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K47" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L47" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M47" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N47" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O47" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="48" spans="1:13">
+      <c r="J47" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K47" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L47" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M47" s="389"/>
+      <c r="N47" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O47" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P47" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q47" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V47" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="W47" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="15" r="48" s="8" spans="1:10">
       <c r="A48" s="17"/>
-      <c r="B48" s="8"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
       <c r="J48" s="7"/>
-      <c r="K48" s="8"/>
-      <c r="L48" s="8"/>
-      <c r="M48" s="8"/>
-    </row>
-    <row ht="15" r="49" spans="1:15">
-      <c r="A49" s="16" t="s">
+    </row>
+    <row ht="15" r="49" spans="1:31">
+      <c r="A49" s="9" t="s">
         <v>123</v>
       </c>
       <c r="B49" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="16" t="s">
+      <c r="E49" s="9" t="s">
         <v>124</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" s="15" t="s">
+      <c r="H49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J49" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L49" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M49" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O49" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="50" spans="1:15">
-      <c r="A50" s="15" t="s">
+      <c r="J49" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K49" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L49" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P49" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q49" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V49" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="W49" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD49" s="395" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE49" s="395" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="50" spans="1:31">
+      <c r="A50" s="9" t="s">
         <v>126</v>
       </c>
       <c r="B50" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="9" t="s">
         <v>127</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" s="15" t="s">
+      <c r="H50" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J50" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L50" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M50" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N50" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O50" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="51" spans="1:15">
-      <c r="A51" s="16" t="s">
+      <c r="J50" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K50" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L50" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M50" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N50" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P50" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V50" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="W50" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD50" s="395" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE50" s="395" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="51" spans="1:31">
+      <c r="A51" s="9" t="s">
         <v>129</v>
       </c>
       <c r="B51" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="16" t="s">
+      <c r="E51" s="9" t="s">
         <v>130</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I51" s="15" t="s">
+      <c r="H51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L51" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N51" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O51" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="52" spans="1:15">
-      <c r="A52" s="16" t="s">
+      <c r="J51" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K51" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L51" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P51" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q51" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V51" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="W51" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD51" s="395" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE51" s="395" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="52" spans="1:31">
+      <c r="A52" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B52" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="9" t="s">
         <v>132</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" s="15" t="s">
+      <c r="H52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J52" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K52" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L52" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M52" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N52" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O52" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="53" spans="1:15">
-      <c r="A53" s="15" t="s">
+      <c r="J52" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K52" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L52" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M52" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P52" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q52" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V52" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="W52" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD52" s="395" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE52" s="395" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="53" spans="1:31">
+      <c r="A53" s="9" t="s">
         <v>133</v>
       </c>
       <c r="B53" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="15" t="s">
+      <c r="E53" s="9" t="s">
         <v>134</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I53" s="15" t="s">
+      <c r="H53" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I53" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J53" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K53" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L53" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M53" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N53" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O53" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="54" spans="1:15">
-      <c r="A54" s="15" t="s">
+      <c r="J53" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K53" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L53" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M53" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N53" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O53" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P53" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q53" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V53" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="W53" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD53" s="395" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE53" s="395" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="54" spans="1:31">
+      <c r="A54" s="9" t="s">
         <v>136</v>
       </c>
       <c r="B54" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C54" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="9" t="s">
         <v>137</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" s="15" t="s">
+      <c r="H54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J54" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L54" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M54" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N54" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O54" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="55" spans="1:15">
-      <c r="A55" s="15" t="s">
+      <c r="J54" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K54" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L54" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M54" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N54" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O54" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P54" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q54" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V54" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="W54" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD54" s="395" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE54" s="395" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="55" spans="1:31">
+      <c r="A55" s="9" t="s">
         <v>138</v>
       </c>
       <c r="B55" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="15" t="s">
+      <c r="E55" s="9" t="s">
         <v>139</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I55" s="15" t="s">
+      <c r="H55" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I55" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J55" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K55" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L55" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N55" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O55" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="56" spans="1:15">
-      <c r="A56" s="15" t="s">
+      <c r="J55" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K55" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L55" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M55" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N55" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P55" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q55" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V55" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="W55" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD55" s="395" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE55" s="395" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="56" spans="1:31">
+      <c r="A56" s="9" t="s">
         <v>140</v>
       </c>
       <c r="B56" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="15" t="s">
+      <c r="E56" s="9" t="s">
         <v>141</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="15" t="s">
+      <c r="H56" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J56" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M56" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N56" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O56" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="57" spans="1:15">
-      <c r="A57" s="16" t="s">
+      <c r="J56" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K56" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L56" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M56" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N56" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P56" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q56" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V56" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="W56" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD56" s="395" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE56" s="395" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row ht="15" r="57" spans="1:31">
+      <c r="A57" s="9" t="s">
         <v>142</v>
       </c>
       <c r="B57" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="21" t="s">
+      <c r="E57" s="33" t="s">
         <v>143</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I57" s="15" t="s">
+      <c r="H57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J57" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K57" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M57" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O57" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="58" spans="1:15">
-      <c r="A58" s="15" t="s">
+      <c r="J57" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K57" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L57" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M57" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N57" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q57" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V57" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="W57" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD57" s="395" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE57" s="395" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row ht="15" r="58" spans="1:23">
+      <c r="A58" s="9" t="s">
         <v>144</v>
       </c>
       <c r="B58" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="15" t="s">
+      <c r="E58" s="9" t="s">
         <v>145</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G58" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" s="15" t="s">
+      <c r="H58" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J58" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K58" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L58" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M58" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O58" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="59" spans="1:15">
-      <c r="A59" s="15" t="s">
+      <c r="J58" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K58" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L58" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P58" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q58" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+    </row>
+    <row ht="15" r="59" spans="1:23">
+      <c r="A59" s="9" t="s">
         <v>146</v>
       </c>
       <c r="B59" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="9" t="s">
         <v>147</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G59" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I59" s="15" t="s">
+      <c r="H59" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I59" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J59" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K59" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L59" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O59" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="60" spans="1:15">
-      <c r="A60" s="15" t="s">
+      <c r="J59" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K59" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L59" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M59" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P59" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q59" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V59" s="33"/>
+      <c r="W59" s="33"/>
+    </row>
+    <row ht="15" r="60" spans="1:23">
+      <c r="A60" s="9" t="s">
         <v>148</v>
       </c>
       <c r="B60" s="185" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="9" t="s">
         <v>149</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" s="15" t="s">
+      <c r="H60" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J60" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K60" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L60" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M60" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O60" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="61" spans="3:12">
+      <c r="J60" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K60" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L60" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M60" s="398" t="s">
+        <v>347</v>
+      </c>
+      <c r="N60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P60" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q60" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V60" s="33"/>
+      <c r="W60" s="33"/>
+    </row>
+    <row customFormat="1" ht="15" r="61" s="8" spans="3:23">
       <c r="C61" s="9"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
       <c r="J61" s="7"/>
-      <c r="L61" s="8"/>
-    </row>
-    <row ht="15" r="62" spans="1:15">
+      <c r="V61" s="389"/>
+      <c r="W61" s="389"/>
+    </row>
+    <row ht="15" r="62" spans="1:23">
       <c r="A62" s="8" t="s">
         <v>246</v>
       </c>
@@ -5831,8 +6819,7 @@
       <c r="C62" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="15" t="s">
+      <c r="E62" s="9" t="s">
         <v>248</v>
       </c>
       <c r="F62" s="8" t="s">
@@ -5841,52 +6828,55 @@
       <c r="G62" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" s="15" t="s">
+      <c r="H62" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J62" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L62" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M62" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="J62" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K62" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L62" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M62" s="389"/>
       <c r="N62" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O62" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="63" spans="3:12">
+      <c r="O62" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P62" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q62" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V62" s="393"/>
+      <c r="W62" s="393"/>
+    </row>
+    <row customFormat="1" ht="15" r="63" s="8" spans="3:10">
       <c r="C63" s="9"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="10"/>
       <c r="J63" s="7"/>
-      <c r="L63" s="8"/>
-    </row>
-    <row ht="15" r="64" spans="1:15">
+    </row>
+    <row ht="15" r="64" spans="1:23">
       <c r="A64" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B64" s="186" t="s">
+      <c r="B64" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E64" s="15" t="s">
+      <c r="E64" s="9" t="s">
         <v>253</v>
       </c>
       <c r="F64" s="8" t="s">
@@ -5895,45 +6885,53 @@
       <c r="G64" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="10" t="s">
+      <c r="H64" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I64" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="J64" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K64" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L64" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>25</v>
+      <c r="J64" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K64" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L64" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M64" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N64" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O64" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="65" spans="1:15">
+      <c r="O64" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P64" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q64" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V64" s="423"/>
+      <c r="W64" s="423"/>
+    </row>
+    <row ht="15" r="65" spans="1:23">
       <c r="A65" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B65" s="186" t="s">
+      <c r="B65" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="9" t="s">
         <v>256</v>
       </c>
       <c r="F65" s="8" t="s">
@@ -5942,47 +6940,52 @@
       <c r="G65" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="10" t="s">
+      <c r="H65" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I65" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="J65" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K65" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>25</v>
+      <c r="J65" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K65" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L65" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M65" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N65" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O65" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="66" spans="1:12">
+      <c r="O65" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P65" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q65" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V65" s="423"/>
+      <c r="W65" s="423"/>
+    </row>
+    <row customFormat="1" ht="15" r="66" s="8" spans="1:10">
       <c r="A66" s="17"/>
       <c r="C66" s="9"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
       <c r="J66" s="7"/>
-      <c r="L66" s="8"/>
-    </row>
-    <row ht="15" r="67" spans="1:15">
-      <c r="A67" s="24" t="s">
+    </row>
+    <row ht="15" r="67" spans="1:23">
+      <c r="A67" s="391" t="s">
         <v>257</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="391" t="s">
         <v>257</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="9" t="s">
         <v>155</v>
       </c>
       <c r="F67" s="8" t="s">
@@ -5991,324 +6994,333 @@
       <c r="G67" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H67" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I67" s="119" t="s">
+      <c r="H67" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I67" s="388" t="s">
         <v>190</v>
       </c>
-      <c r="J67" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K67" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M67" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="J67" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K67" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L67" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M67" s="389"/>
       <c r="N67" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O67" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="68" spans="1:12">
+      <c r="O67" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P67" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q67" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V67" s="424"/>
+      <c r="W67" s="424"/>
+    </row>
+    <row customFormat="1" ht="15" r="68" s="8" spans="1:14">
       <c r="A68" s="17"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="8"/>
-      <c r="L68" s="7"/>
-    </row>
-    <row ht="15" r="69" spans="1:19">
+      <c r="N68" s="7"/>
+    </row>
+    <row ht="15" r="69" spans="1:23">
       <c r="A69" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B69" s="185" t="s">
         <v>259</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D69" s="15" t="s">
+      <c r="D69" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E69" s="33" t="s">
         <v>166</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="10" t="s">
+      <c r="H69" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="J69" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K69" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="L69" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M69" s="8" t="s">
-        <v>25</v>
+      <c r="J69" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K69" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L69" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N69" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O69" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="R69" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S69" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="70" spans="1:19">
+      <c r="O69" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P69" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q69" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V69" s="423"/>
+      <c r="W69" s="423"/>
+    </row>
+    <row ht="15" r="70" spans="1:23">
       <c r="A70" s="8" t="s">
         <v>262</v>
       </c>
       <c r="B70" s="185" t="s">
         <v>259</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D70" s="15" t="s">
+      <c r="D70" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E70" s="42" t="s">
+      <c r="E70" s="34" t="s">
         <v>167</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H70" s="10" t="s">
+      <c r="H70" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I70" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="J70" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K70" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="L70" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M70" s="8" t="s">
-        <v>25</v>
+      <c r="J70" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K70" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L70" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M70" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N70" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O70" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="R70" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S70" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="71" spans="1:19">
-      <c r="A71" s="15" t="s">
+      <c r="O70" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P70" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q70" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V70" s="423"/>
+      <c r="W70" s="423"/>
+    </row>
+    <row ht="15" r="71" spans="1:23">
+      <c r="A71" s="9" t="s">
         <v>263</v>
       </c>
       <c r="B71" s="185" t="s">
         <v>259</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D71" s="15" t="s">
+      <c r="D71" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="9" t="s">
         <v>168</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G71" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H71" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I71" s="15" t="s">
+      <c r="H71" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I71" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J71" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K71" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="L71" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M71" s="8" t="s">
-        <v>25</v>
+      <c r="J71" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K71" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L71" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M71" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N71" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O71" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="R71" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S71" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row ht="15" r="72" spans="1:19">
-      <c r="A72" s="16" t="s">
+      <c r="O71" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P71" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q71" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V71" s="423"/>
+      <c r="W71" s="423"/>
+    </row>
+    <row ht="15" r="72" spans="1:23">
+      <c r="A72" s="9" t="s">
         <v>264</v>
       </c>
       <c r="B72" s="185" t="s">
         <v>259</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C72" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="D72" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="E72" s="16" t="s">
+      <c r="D72" s="9"/>
+      <c r="E72" s="9" t="s">
         <v>169</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G72" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H72" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" s="15" t="s">
+      <c r="H72" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J72" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K72" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="L72" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M72" s="8" t="s">
-        <v>25</v>
-      </c>
+      <c r="J72" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K72" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L72" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M72" s="389"/>
       <c r="N72" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O72" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="R72" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="S72" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row ht="15" r="73" spans="1:19">
-      <c r="A73" s="16" t="s">
+      <c r="O72" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P72" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q72" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V72" s="423"/>
+      <c r="W72" s="423"/>
+    </row>
+    <row ht="15" r="73" spans="1:23">
+      <c r="A73" s="9" t="s">
         <v>265</v>
       </c>
       <c r="B73" s="185" t="s">
         <v>259</v>
       </c>
-      <c r="C73" s="16" t="s">
+      <c r="C73" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D73" s="16" t="s">
+      <c r="D73" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E73" s="187" t="s">
+      <c r="E73" s="35" t="s">
         <v>170</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G73" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H73" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I73" s="15" t="s">
+      <c r="H73" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I73" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J73" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K73" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="L73" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M73" s="8" t="s">
-        <v>25</v>
+      <c r="J73" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K73" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L73" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M73" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N73" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O73" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="R73" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="S73" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row ht="15" r="74" spans="5:12">
-      <c r="E74" s="186"/>
-      <c r="F74" s="8"/>
-      <c r="L74" s="7"/>
-    </row>
-    <row ht="15" r="75" spans="1:12">
+      <c r="O73" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P73" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q73" s="390" t="s">
+        <v>26</v>
+      </c>
+      <c r="V73" s="423"/>
+      <c r="W73" s="423"/>
+    </row>
+    <row customFormat="1" ht="15" r="74" s="8" spans="5:14">
+      <c r="E74" s="9"/>
+      <c r="N74" s="7"/>
+    </row>
+    <row customFormat="1" ht="15" r="75" s="8" spans="1:14">
       <c r="A75" s="17"/>
-      <c r="E75" s="186"/>
-      <c r="F75" s="8"/>
-      <c r="L75" s="7"/>
-    </row>
-    <row ht="15" r="76" spans="1:15">
-      <c r="A76" s="15" t="s">
+      <c r="E75" s="9"/>
+      <c r="N75" s="7"/>
+    </row>
+    <row ht="15" r="76" spans="1:17">
+      <c r="A76" s="9" t="s">
         <v>266</v>
       </c>
       <c r="B76" s="185" t="s">
-        <v>267</v>
-      </c>
-      <c r="C76" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="9" t="s">
         <v>268</v>
       </c>
       <c r="F76" s="8" t="s">
@@ -6317,42 +7329,48 @@
       <c r="G76" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H76" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="15" t="s">
+      <c r="H76" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J76" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K76" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L76" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M76" s="8" t="s">
-        <v>25</v>
+      <c r="J76" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K76" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L76" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M76" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N76" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O76" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="77" spans="1:15">
-      <c r="A77" s="15" t="s">
+      <c r="O76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P76" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q76" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="77" spans="1:17">
+      <c r="A77" s="9" t="s">
         <v>269</v>
       </c>
       <c r="B77" s="185" t="s">
-        <v>267</v>
-      </c>
-      <c r="C77" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="9" t="s">
         <v>270</v>
       </c>
       <c r="F77" s="8" t="s">
@@ -6361,42 +7379,48 @@
       <c r="G77" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H77" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I77" s="15" t="s">
+      <c r="H77" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I77" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J77" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K77" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L77" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M77" s="8" t="s">
-        <v>25</v>
+      <c r="J77" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K77" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L77" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M77" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N77" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O77" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="78" spans="1:15">
-      <c r="A78" s="15" t="s">
+      <c r="O77" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P77" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q77" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="78" spans="1:17">
+      <c r="A78" s="9" t="s">
         <v>271</v>
       </c>
       <c r="B78" s="185" t="s">
-        <v>267</v>
-      </c>
-      <c r="C78" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="9" t="s">
         <v>272</v>
       </c>
       <c r="F78" s="8" t="s">
@@ -6405,42 +7429,48 @@
       <c r="G78" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H78" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" s="15" t="s">
+      <c r="H78" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J78" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K78" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L78" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M78" s="8" t="s">
-        <v>25</v>
+      <c r="J78" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K78" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L78" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M78" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N78" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O78" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="79" spans="1:15">
-      <c r="A79" s="15" t="s">
+      <c r="O78" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P78" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q78" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="79" spans="1:17">
+      <c r="A79" s="9" t="s">
         <v>273</v>
       </c>
       <c r="B79" s="185" t="s">
-        <v>267</v>
-      </c>
-      <c r="C79" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="9" t="s">
         <v>274</v>
       </c>
       <c r="F79" s="8" t="s">
@@ -6449,42 +7479,48 @@
       <c r="G79" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H79" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I79" s="15" t="s">
+      <c r="H79" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I79" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J79" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K79" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L79" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M79" s="8" t="s">
-        <v>25</v>
+      <c r="J79" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K79" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L79" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M79" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N79" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O79" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="80" spans="1:15">
-      <c r="A80" s="15" t="s">
+      <c r="O79" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P79" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q79" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="80" spans="1:17">
+      <c r="A80" s="9" t="s">
         <v>275</v>
       </c>
       <c r="B80" s="185" t="s">
-        <v>267</v>
-      </c>
-      <c r="C80" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E80" s="9" t="s">
         <v>276</v>
       </c>
       <c r="F80" s="8" t="s">
@@ -6493,42 +7529,48 @@
       <c r="G80" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H80" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I80" s="15" t="s">
+      <c r="H80" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J80" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K80" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L80" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M80" s="8" t="s">
-        <v>25</v>
+      <c r="J80" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K80" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L80" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M80" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N80" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O80" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="81" spans="1:15">
-      <c r="A81" s="15" t="s">
+      <c r="O80" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P80" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q80" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="81" spans="1:17">
+      <c r="A81" s="9" t="s">
         <v>277</v>
       </c>
       <c r="B81" s="185" t="s">
-        <v>267</v>
-      </c>
-      <c r="C81" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="E81" s="188" t="s">
+      <c r="E81" s="9" t="s">
         <v>278</v>
       </c>
       <c r="F81" s="8" t="s">
@@ -6537,45 +7579,51 @@
       <c r="G81" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H81" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I81" s="15" t="s">
+      <c r="H81" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I81" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J81" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K81" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L81" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M81" s="8" t="s">
-        <v>25</v>
+      <c r="J81" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K81" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L81" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M81" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N81" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O81" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="82" spans="1:15">
-      <c r="A82" s="15" t="s">
+      <c r="O81" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P81" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q81" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="82" spans="1:17">
+      <c r="A82" s="9" t="s">
         <v>279</v>
       </c>
       <c r="B82" s="185" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="D82" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="9" t="s">
         <v>282</v>
       </c>
       <c r="F82" s="8" t="s">
@@ -6584,45 +7632,51 @@
       <c r="G82" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H82" s="10" t="s">
+      <c r="H82" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="J82" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K82" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L82" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M82" s="8" t="s">
-        <v>25</v>
+      <c r="J82" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K82" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L82" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M82" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N82" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O82" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="83" spans="1:15">
-      <c r="A83" s="15" t="s">
+      <c r="O82" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P82" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q82" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="83" spans="1:17">
+      <c r="A83" s="9" t="s">
         <v>283</v>
       </c>
       <c r="B83" s="185" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="D83" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D83" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="E83" s="15" t="s">
+      <c r="E83" s="9" t="s">
         <v>285</v>
       </c>
       <c r="F83" s="8" t="s">
@@ -6631,45 +7685,51 @@
       <c r="G83" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H83" s="10" t="s">
+      <c r="H83" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I83" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="J83" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K83" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L83" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M83" s="8" t="s">
-        <v>25</v>
+      <c r="J83" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K83" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L83" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M83" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N83" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O83" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="84" spans="1:15">
-      <c r="A84" s="15" t="s">
+      <c r="O83" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P83" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q83" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="84" spans="1:17">
+      <c r="A84" s="9" t="s">
         <v>286</v>
       </c>
       <c r="B84" s="185" t="s">
-        <v>267</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="D84" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="E84" s="15" t="s">
+      <c r="E84" s="9" t="s">
         <v>288</v>
       </c>
       <c r="F84" s="8" t="s">
@@ -6678,45 +7738,51 @@
       <c r="G84" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H84" s="10" t="s">
+      <c r="H84" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I84" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="J84" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K84" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L84" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M84" s="8" t="s">
-        <v>25</v>
+      <c r="J84" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K84" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L84" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M84" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N84" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O84" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="85" spans="1:15">
-      <c r="A85" s="15" t="s">
+      <c r="O84" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P84" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q84" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="85" spans="1:17">
+      <c r="A85" s="9" t="s">
         <v>289</v>
       </c>
       <c r="B85" s="185" t="s">
-        <v>267</v>
-      </c>
-      <c r="C85" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="D85" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="E85" s="15" t="s">
+      <c r="D85" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E85" s="9" t="s">
         <v>290</v>
       </c>
       <c r="F85" s="8" t="s">
@@ -6725,42 +7791,48 @@
       <c r="G85" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H85" s="10" t="s">
+      <c r="H85" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I85" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="J85" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K85" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L85" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M85" s="8" t="s">
-        <v>25</v>
+      <c r="J85" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K85" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L85" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M85" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N85" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O85" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="86" spans="1:15">
-      <c r="A86" s="15" t="s">
+      <c r="O85" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P85" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q85" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="86" spans="1:17">
+      <c r="A86" s="9" t="s">
         <v>291</v>
       </c>
       <c r="B86" s="185" t="s">
-        <v>267</v>
-      </c>
-      <c r="C86" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="E86" s="9" t="s">
         <v>292</v>
       </c>
       <c r="F86" s="8" t="s">
@@ -6769,42 +7841,48 @@
       <c r="G86" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H86" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I86" s="15" t="s">
+      <c r="H86" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J86" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K86" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L86" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M86" s="8" t="s">
-        <v>25</v>
+      <c r="J86" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K86" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L86" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M86" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N86" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O86" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="87" spans="1:15">
-      <c r="A87" s="15" t="s">
+      <c r="O86" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P86" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q86" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="87" spans="1:17">
+      <c r="A87" s="9" t="s">
         <v>293</v>
       </c>
       <c r="B87" s="185" t="s">
-        <v>267</v>
-      </c>
-      <c r="C87" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="E87" s="15" t="s">
+      <c r="E87" s="9" t="s">
         <v>294</v>
       </c>
       <c r="F87" s="8" t="s">
@@ -6813,42 +7891,48 @@
       <c r="G87" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H87" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I87" s="15" t="s">
+      <c r="H87" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I87" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J87" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K87" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L87" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M87" s="8" t="s">
-        <v>25</v>
+      <c r="J87" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K87" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L87" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M87" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N87" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O87" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="88" spans="1:15">
-      <c r="A88" s="15" t="s">
+      <c r="O87" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P87" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q87" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="88" spans="1:17">
+      <c r="A88" s="9" t="s">
         <v>295</v>
       </c>
       <c r="B88" s="185" t="s">
-        <v>267</v>
-      </c>
-      <c r="C88" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E88" s="9" t="s">
         <v>296</v>
       </c>
       <c r="F88" s="8" t="s">
@@ -6857,47 +7941,47 @@
       <c r="G88" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H88" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I88" s="15" t="s">
+      <c r="H88" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J88" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K88" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L88" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M88" s="8" t="s">
-        <v>25</v>
+      <c r="J88" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K88" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L88" s="389" t="s">
+        <v>25</v>
+      </c>
+      <c r="M88" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N88" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O88" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="89" spans="5:14">
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
+      <c r="O88" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P88" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q88" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="15" r="89" s="8" spans="7:16">
       <c r="G89" s="9"/>
-      <c r="L89" s="8"/>
-      <c r="N89" s="7"/>
-    </row>
-    <row ht="15" r="90" spans="1:15">
+      <c r="P89" s="7"/>
+    </row>
+    <row customFormat="1" ht="15" r="90" s="8" spans="1:17">
       <c r="A90" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B90" s="24" t="s">
+      <c r="B90" s="391" t="s">
         <v>195</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="F90" s="8" t="s">
         <v>19</v>
@@ -6905,40 +7989,43 @@
       <c r="G90" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H90" s="10" t="s">
+      <c r="H90" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I90" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="J90" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K90" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L90" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M90" s="8" t="s">
-        <v>25</v>
+      <c r="J90" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K90" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L90" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M90" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N90" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O90" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="91" spans="1:15">
-      <c r="A91" s="15" t="s">
+      <c r="O90" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P90" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q90" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customFormat="1" ht="15" r="91" s="8" spans="1:17">
+      <c r="A91" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="D91" s="24" t="s">
+      <c r="D91" s="391" t="s">
         <v>302</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>165</v>
       </c>
       <c r="F91" s="8" t="s">
         <v>19</v>
@@ -6946,848 +8033,934 @@
       <c r="G91" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H91" s="10" t="s">
+      <c r="H91" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I91" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J91" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K91" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L91" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M91" s="8" t="s">
-        <v>25</v>
+      <c r="J91" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K91" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L91" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M91" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N91" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O91" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="92" spans="1:15">
-      <c r="A92" s="15" t="s">
+      <c r="O91" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P91" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q91" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="92" spans="1:17">
+      <c r="A92" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D92" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E92" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="E92" s="9"/>
       <c r="F92" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G92" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H92" s="10" t="s">
+      <c r="H92" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I92" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J92" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K92" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L92" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M92" s="8" t="s">
-        <v>25</v>
+      <c r="J92" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K92" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L92" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M92" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N92" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O92" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="93" spans="1:15">
-      <c r="A93" s="15" t="s">
+      <c r="O92" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P92" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q92" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="93" spans="1:17">
+      <c r="A93" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="D93" s="15" t="s">
+      <c r="D93" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="E93" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="E93" s="9"/>
       <c r="F93" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H93" s="10" t="s">
+      <c r="H93" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I93" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J93" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K93" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L93" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M93" s="8" t="s">
-        <v>25</v>
+      <c r="J93" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K93" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L93" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M93" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N93" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O93" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="94" spans="1:15">
-      <c r="A94" s="15" t="s">
+      <c r="O93" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P93" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q93" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="94" spans="1:17">
+      <c r="A94" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="E94" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="E94" s="9"/>
       <c r="F94" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H94" s="10" t="s">
+      <c r="H94" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I94" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J94" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K94" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L94" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M94" s="8" t="s">
-        <v>25</v>
+      <c r="J94" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K94" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L94" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M94" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N94" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O94" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="95" spans="1:15">
-      <c r="A95" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O94" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P94" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q94" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="95" spans="1:17">
+      <c r="A95" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="D95" s="15" t="s">
+      <c r="D95" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E95" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="E95" s="9"/>
       <c r="F95" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H95" s="10" t="s">
+      <c r="H95" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I95" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J95" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K95" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L95" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M95" s="8" t="s">
-        <v>25</v>
+      <c r="J95" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K95" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L95" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M95" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N95" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O95" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="96" spans="1:15">
-      <c r="A96" s="15" t="s">
+      <c r="O95" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P95" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q95" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="96" spans="1:17">
+      <c r="A96" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="D96" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="E96" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="E96" s="9"/>
       <c r="F96" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H96" s="10" t="s">
+      <c r="H96" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I96" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J96" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K96" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L96" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M96" s="8" t="s">
-        <v>25</v>
+      <c r="J96" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K96" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L96" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M96" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N96" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O96" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="97" spans="1:15">
+      <c r="O96" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P96" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q96" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="97" spans="1:17">
       <c r="A97" s="8" t="s">
         <v>310</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="E97" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="E97" s="9"/>
       <c r="F97" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H97" s="10" t="s">
+      <c r="H97" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I97" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J97" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K97" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L97" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M97" s="8" t="s">
-        <v>25</v>
+      <c r="J97" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K97" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L97" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M97" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N97" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O97" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="98" spans="1:15">
-      <c r="A98" s="15" t="s">
+      <c r="O97" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P97" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q97" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="98" spans="1:17">
+      <c r="A98" s="9" t="s">
         <v>311</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="E98" s="33" t="s">
-        <v>165</v>
-      </c>
+      <c r="E98" s="33"/>
       <c r="F98" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H98" s="10" t="s">
+      <c r="H98" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I98" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J98" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K98" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L98" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M98" s="8" t="s">
-        <v>25</v>
+      <c r="J98" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K98" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L98" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M98" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N98" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O98" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="99" spans="1:15">
-      <c r="A99" s="15" t="s">
+      <c r="O98" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P98" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q98" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="99" spans="1:17">
+      <c r="A99" s="9" t="s">
         <v>313</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="E99" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="E99" s="9"/>
       <c r="F99" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H99" s="10" t="s">
+      <c r="H99" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I99" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J99" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K99" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L99" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M99" s="8" t="s">
-        <v>25</v>
+      <c r="J99" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K99" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L99" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M99" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N99" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O99" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="100" spans="1:15">
-      <c r="A100" s="15" t="s">
+      <c r="O99" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P99" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q99" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="100" spans="1:17">
+      <c r="A100" s="9" t="s">
         <v>314</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="E100" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="E100" s="9"/>
       <c r="F100" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H100" s="10" t="s">
+      <c r="H100" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I100" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J100" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K100" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L100" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M100" s="8" t="s">
-        <v>25</v>
+      <c r="J100" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K100" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L100" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M100" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N100" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O100" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="101" spans="1:15">
-      <c r="A101" s="15" t="s">
+      <c r="O100" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P100" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q100" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="101" spans="1:17">
+      <c r="A101" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="D101" s="15" t="s">
+      <c r="D101" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="E101" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="E101" s="9"/>
       <c r="F101" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H101" s="10" t="s">
+      <c r="H101" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I101" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J101" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K101" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L101" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M101" s="8" t="s">
-        <v>25</v>
+      <c r="J101" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K101" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L101" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M101" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N101" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O101" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="102" spans="1:15">
-      <c r="A102" s="15" t="s">
+      <c r="O101" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P101" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q101" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="102" spans="1:17">
+      <c r="A102" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="D102" s="15" t="s">
+      <c r="D102" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="E102" s="36" t="s">
-        <v>165</v>
-      </c>
+      <c r="E102" s="36"/>
       <c r="F102" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H102" s="10" t="s">
+      <c r="H102" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I102" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J102" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K102" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L102" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M102" s="8" t="s">
-        <v>25</v>
+      <c r="J102" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K102" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L102" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M102" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N102" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O102" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="103" spans="1:15">
-      <c r="A103" s="15" t="s">
+      <c r="O102" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P102" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q102" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="103" spans="1:17">
+      <c r="A103" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="D103" s="15" t="s">
+      <c r="D103" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E103" s="36" t="s">
-        <v>165</v>
-      </c>
+      <c r="E103" s="36"/>
       <c r="F103" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H103" s="10" t="s">
+      <c r="H103" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I103" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J103" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K103" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L103" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M103" s="8" t="s">
-        <v>25</v>
+      <c r="J103" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K103" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L103" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M103" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N103" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O103" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="104" spans="1:15">
-      <c r="A104" s="15" t="s">
+      <c r="O103" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P103" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q103" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="104" spans="1:17">
+      <c r="A104" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="D104" s="15" t="s">
+      <c r="D104" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="E104" s="36" t="s">
-        <v>165</v>
-      </c>
+      <c r="E104" s="36"/>
       <c r="F104" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H104" s="10" t="s">
+      <c r="H104" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I104" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J104" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K104" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L104" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M104" s="8" t="s">
-        <v>25</v>
+      <c r="J104" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K104" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L104" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M104" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N104" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O104" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="105" spans="1:15">
-      <c r="A105" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O104" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P104" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q104" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="105" spans="1:17">
+      <c r="A105" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="D105" s="15" t="s">
+      <c r="D105" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E105" s="36" t="s">
-        <v>165</v>
-      </c>
+      <c r="E105" s="36"/>
       <c r="F105" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H105" s="10" t="s">
+      <c r="H105" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I105" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J105" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K105" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L105" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M105" s="8" t="s">
-        <v>25</v>
+      <c r="J105" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K105" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L105" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M105" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N105" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O105" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="106" spans="1:15">
-      <c r="A106" s="15" t="s">
+      <c r="O105" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P105" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q105" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="106" spans="1:17">
+      <c r="A106" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="D106" s="15" t="s">
+      <c r="D106" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="E106" s="36" t="s">
-        <v>165</v>
-      </c>
+      <c r="E106" s="36"/>
       <c r="F106" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H106" s="10" t="s">
+      <c r="H106" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I106" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J106" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K106" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L106" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M106" s="8" t="s">
-        <v>25</v>
+      <c r="J106" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K106" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L106" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M106" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N106" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O106" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="107" spans="1:15">
-      <c r="A107" s="15" t="s">
+      <c r="O106" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P106" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q106" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="107" spans="1:17">
+      <c r="A107" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="D107" s="15" t="s">
+      <c r="D107" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="E107" s="36" t="s">
-        <v>165</v>
-      </c>
+      <c r="E107" s="36"/>
       <c r="F107" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H107" s="10" t="s">
+      <c r="H107" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I107" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J107" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K107" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L107" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M107" s="8" t="s">
-        <v>25</v>
+      <c r="J107" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K107" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L107" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M107" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N107" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O107" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="108" spans="1:15">
-      <c r="A108" s="15" t="s">
+      <c r="O107" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P107" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q107" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="108" spans="1:17">
+      <c r="A108" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="D108" s="15" t="s">
+      <c r="D108" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="E108" s="36" t="s">
-        <v>165</v>
-      </c>
+      <c r="E108" s="36"/>
       <c r="F108" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H108" s="10" t="s">
+      <c r="H108" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I108" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J108" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K108" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L108" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M108" s="8" t="s">
-        <v>25</v>
+      <c r="J108" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K108" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L108" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M108" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N108" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O108" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="109" spans="1:15">
-      <c r="A109" s="15" t="s">
+      <c r="O108" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P108" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q108" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="109" spans="1:17">
+      <c r="A109" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="D109" s="15" t="s">
+      <c r="D109" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="E109" s="36" t="s">
-        <v>165</v>
-      </c>
+      <c r="E109" s="36"/>
       <c r="F109" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G109" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H109" s="10" t="s">
+      <c r="H109" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I109" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J109" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K109" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L109" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M109" s="8" t="s">
-        <v>25</v>
+      <c r="J109" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K109" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L109" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M109" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N109" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O109" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="110" spans="1:15">
-      <c r="A110" s="15" t="s">
+      <c r="O109" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P109" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q109" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="110" spans="1:17">
+      <c r="A110" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="D110" s="15" t="s">
+      <c r="D110" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="E110" s="36" t="s">
-        <v>165</v>
-      </c>
+      <c r="E110" s="36"/>
       <c r="F110" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G110" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H110" s="10" t="s">
+      <c r="H110" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I110" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J110" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K110" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L110" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M110" s="8" t="s">
-        <v>25</v>
+      <c r="J110" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K110" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L110" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M110" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N110" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O110" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="15" r="111" spans="1:15">
-      <c r="A111" s="15" t="s">
+      <c r="O110" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P110" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q110" s="390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="15" r="111" spans="1:17">
+      <c r="A111" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="D111" s="15" t="s">
+      <c r="D111" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="E111" s="36" t="s">
-        <v>165</v>
-      </c>
+      <c r="E111" s="36"/>
       <c r="F111" s="8" t="s">
         <v>19</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="H111" s="10" t="s">
+      <c r="H111" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I111" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="J111" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K111" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="L111" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="M111" s="8" t="s">
-        <v>25</v>
+      <c r="J111" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K111" s="418" t="s">
+        <v>173</v>
+      </c>
+      <c r="L111" s="389" t="s">
+        <v>19</v>
+      </c>
+      <c r="M111" s="398" t="s">
+        <v>347</v>
       </c>
       <c r="N111" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O111" s="13" t="s">
+      <c r="O111" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="P111" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q111" s="390" t="s">
         <v>26</v>
       </c>
     </row>
@@ -8005,133 +9178,132 @@
       <c r="E182" s="36"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N89">
-    <cfRule operator="equal" priority="5" type="cellIs">
-      <formula>$L$13</formula>
+  <conditionalFormatting sqref="P89">
+    <cfRule dxfId="0" operator="equal" priority="2" type="cellIs">
+      <formula>$N$13</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L75 J63 J66 L68">
-    <cfRule operator="equal" priority="2" type="cellIs">
+  <conditionalFormatting sqref="N75 J63 J66 N68">
+    <cfRule dxfId="0" operator="equal" priority="3" type="cellIs">
       <formula>$J$14</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L74">
-    <cfRule operator="equal" priority="3" type="cellIs">
+  <conditionalFormatting sqref="N74">
+    <cfRule dxfId="0" operator="equal" priority="4" type="cellIs">
       <formula>$J$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J61">
-    <cfRule operator="equal" priority="4" type="cellIs">
+    <cfRule dxfId="0" operator="equal" priority="5" type="cellIs">
       <formula>$J$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule operator="equal" priority="1" type="cellIs">
+    <cfRule dxfId="0" operator="equal" priority="6" type="cellIs">
       <formula>$J$14</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId1" ref="O3"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId2" ref="O4"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId3" ref="O6"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId4" ref="O7"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId5" ref="O8"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId6" ref="O9"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId7" ref="O10"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId8" ref="O11"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId9" ref="O12"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId10" ref="O13"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId11" ref="O14"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId12" ref="O15"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId13" ref="O16"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId14" ref="O17"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId15" ref="O18"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId16" ref="O19"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId17" ref="O20"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId18" ref="O21"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId19" ref="O22"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId20" ref="O23"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId21" ref="O24"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId22" ref="O25"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId23" ref="O27"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId24" ref="O28"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId25" ref="O30"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId26" ref="O31"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId27" ref="O32"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId28" ref="O33"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId29" ref="O34"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId30" ref="O35"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId31" ref="O36"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId32" ref="O37"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId33" ref="O38"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId34" ref="O39"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId35" ref="O40"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId36" ref="O41"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId37" ref="O42"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId38" ref="O43"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId39" ref="O44"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId40" ref="O45"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId41" ref="O46"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId42" ref="O47"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId43" ref="O2"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId44" ref="O49"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId45" ref="O50"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId46" ref="O51"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId47" ref="O52"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId48" ref="O53"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId49" ref="O54"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId50" ref="O55"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId51" ref="O56"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId52" ref="O57"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId53" ref="O58"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId54" ref="O59"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId55" ref="O60"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId56" ref="O62"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId57" ref="O64"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId58" ref="O65"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId59" ref="O67"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId60" ref="O69"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId61" ref="O70"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId62" ref="O71"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId63" ref="O72"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId64" ref="O73"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId65" ref="O76"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId66" ref="O77"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId67" ref="O78"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId68" ref="O79"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId69" ref="O80"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId70" ref="O81"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId71" ref="O82"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId72" ref="O83"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId73" ref="O84"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId74" ref="O85"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId75" ref="O86"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId76" ref="O87"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId77" ref="O88"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId78" ref="O90"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId79" ref="O91"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId80" ref="O92"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId81" ref="O93"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId82" ref="O94"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId83" ref="O95"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId84" ref="O96"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId85" ref="O97"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId86" ref="O98"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId87" ref="O99"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId88" ref="O100"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId89" ref="O101"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId90" ref="O102"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId91" ref="O103"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId92" ref="O104"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId93" ref="O105"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId94" ref="O106"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId95" ref="O107"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId96" ref="O108"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId97" ref="O109"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId98" ref="O110"/>
-    <hyperlink display="https://ma.airpay.co.in/" r:id="rId99" ref="O111"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId1" ref="Q2"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId2" ref="Q3"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId3" ref="Q4"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId4" ref="Q6"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId5" ref="Q7"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId6" ref="Q8"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId7" ref="Q9"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId8" ref="Q10"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId9" ref="Q12"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId10" ref="Q13"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId11" ref="Q14"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId12" ref="Q15"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId13" ref="Q16"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId14" ref="Q17"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId15" ref="Q18"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId16" ref="Q19"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId17" ref="Q20"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId18" ref="Q21"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId19" ref="Q22"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId20" ref="Q23"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId21" ref="Q24"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId22" ref="Q25"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId23" ref="Q27"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId24" ref="Q28"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId25" ref="Q30"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId26" ref="Q31"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId27" ref="Q32"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId28" ref="Q33"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId29" ref="Q34"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId30" ref="Q35"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId31" ref="Q36"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId32" ref="Q37"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId33" ref="Q38"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId34" ref="Q39"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId35" ref="Q40"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId36" ref="Q41"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId37" ref="Q42"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId38" ref="Q43"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId39" ref="Q44"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId40" ref="Q45"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId41" ref="Q46"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId42" ref="Q47"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId43" ref="Q49"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId44" ref="Q50"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId45" ref="Q51"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId46" ref="Q52"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId47" ref="Q53"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId48" ref="Q54"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId49" ref="Q55"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId50" ref="Q56"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId51" ref="Q57"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId52" ref="Q58"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId53" ref="Q59"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId54" ref="Q60"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId55" ref="Q62"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId56" ref="Q64"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId57" ref="Q65"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId58" ref="Q67"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId59" ref="Q69"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId60" ref="Q70"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId61" ref="Q71"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId62" ref="Q72"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId63" ref="Q73"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId64" ref="Q76"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId65" ref="Q77"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId66" ref="Q78"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId67" ref="Q79"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId68" ref="Q80"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId69" ref="Q81"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId70" ref="Q82"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId71" ref="Q83"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId72" ref="Q84"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId73" ref="Q85"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId74" ref="Q86"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId75" ref="Q87"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId76" ref="Q88"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId77" ref="Q90"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId78" ref="Q91"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId79" ref="Q92"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId80" ref="Q93"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId81" ref="Q94"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId82" ref="Q95"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId83" ref="Q96"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId84" ref="Q97"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId85" ref="Q98"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId86" ref="Q99"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId87" ref="Q100"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId88" ref="Q101"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId89" ref="Q102"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId90" ref="Q103"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId91" ref="Q104"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId92" ref="Q105"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId93" ref="Q106"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId94" ref="Q107"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId95" ref="Q108"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId96" ref="Q109"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId97" ref="Q110"/>
+    <hyperlink display="https://ma.airpay.co.in/" r:id="rId98" ref="Q111"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId100"/>
+  <pageMargins bottom="0.75" footer="0.511805555555555" header="0.511805555555555" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>